--- a/data/describe/few_shot_examples.xlsx
+++ b/data/describe/few_shot_examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152E5F8-1C72-4AE8-8350-07B76D3886E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B2F02-16FA-4CFD-8DE4-7D1A77617354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21960" windowHeight="19305" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>The candidate is very outgoing and energetic. The candidate tends to be more social. In particular they said that they start conversations. The candidate is quite sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. The candidate is quite friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very efficient and organized. The candidate tends to be more careful or diligent. In particular they said that they pay attention to details. The candidate is relatively consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>The candidate is extremely solitary and reserved. The candidate tends to be less social. In particular they said that they dont talk a lot. The candidate is very resilient and confident. The candidate tends to feel less negative emotions and anxiety. In particular they said that they get stressed out easily. The candidate is relatively friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very extravagant and careless. The candidate tends to be less careful or diligent. In particular they said that they make a mess of things. The candidate is relatively consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
   </si>
   <si>
-    <t>The candidate is relatively solitary and reserved. The candidate tends to be less social. The candidate is very sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. In particular they said that they are relaxed most of the time. The candidate is relatively critical and rational. The candidate tends to be less cooperative polite kind and friendly. The candidate is quite extravagant and careless. The candidate tends to be less careful or diligent. The candidate is very inventive and curious. The candidate tends to be more open to new ideas and experiences.In particular they said that they have a rich vocabulary.</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -58,21 +55,6 @@
   </si>
   <si>
     <t>The candidate appears to be a reserved and independent individual who is comfortable working alone and prefers minimal social interaction. They show confidence and emotional stability, though a tendency toward carelessness or disorganization may occasionally impact their work quality. They are likely to perform best in roles that allow autonomy, clear structure, and limited social demands, where their self-assurance and steady temperament can contribute effectively.</t>
-  </si>
-  <si>
-    <t>The candidate appears to be an introspective and independent individual who values critical thinking and creativity. They demonstrate strong curiosity and openness to new ideas, though their sensitivity and tendency toward carelessness may occasionally pose challenges in structured environments. They are likely to thrive in roles that reward innovation and analytical depth, where independent work and intellectual exploration are encouraged.</t>
-  </si>
-  <si>
-    <t>The candidate is quite solitary and reserved. The candidate tends to be less social. The candidate is quite resilient and confident. The candidate tends to feel less negative emotions and anxiety. The candidate is relatively friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very efficient and organized. The candidate tends to be more careful or diligent. In particular they said that they are always prepared. The candidate is quite consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
-  </si>
-  <si>
-    <t>The candidate appears to be a composed and self-reliant individual who approaches their work with discipline and steadiness. They demonstrate strong organizational skills, reliability, and emotional resilience, though their preference for routine may limit adaptability to novel or rapidly changing situations. They are likely to thrive in structured and predictable professional environments that value consistency, precision, and accountability.</t>
-  </si>
-  <si>
-    <t>The candidate is very outgoing and energetic. The candidate tends to be more social. In particular they said that they are the life of the party. The candidate is relatively sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. The candidate is quite friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is quite efficient and organized. The candidate tends to be more careful or diligent. The candidate is quite consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
-  </si>
-  <si>
-    <t>The candidate appears to be an outgoing and energetic individual who enjoys social interaction and brings enthusiasm to group settings. They demonstrate strong organizational skills, reliability, and kindness toward others, though their sensitivity may occasionally lead to stress in demanding situations. They are likely to thrive in structured, team-oriented environments where clear expectations and collaborative work are valued.</t>
   </si>
   <si>
     <t>According to the World Value Survey, Peruvians stand out in their emphasis on survival values, viewing work as very important, possibly because it  plays central role in stability of daily life. Peruvians are skeptical toward political institutions, with many of them reporting no confidence in parliament. In other dimensions such as tradition versus secularism, neutrality, fairness, and tranquility, Peru aligns closely with the global average. Overall, Peruvian society appears deeply focused on survival and work, while remaining cautious and distrustful of formal political authority.</t>
@@ -88,13 +70,7 @@
     <t>Here is a statistical description of the societal values of Brazil. According to the WVS, Brazil was found to have neither an above nor a below average Traditional vs Secular Values score compared to other countries in the same wave. According to the WVS, Brazil was found to have neither an above nor a below average Survival vs Self-expression Values score compared to other countries in the same wave. According to the WVS, Brazil was found to be averagely neutral compared to other countries in the same wave. According to the WVS, Brazil was found to have an average value of fairness compared to other countries in the same wave. According to the WVS, Brazil was found to be neither above nor below averagely skeptical compared to other countries in the same wave. According to the WVS, Brazil was found to be neither above nor below averagely tranquil compared to other countries in the same wave.</t>
   </si>
   <si>
-    <t>Here is a statistical description of the societal values of Japan. According to the WVS, Japan was found to have far above average Traditional vs Secular Values score (i.e. far more secular compared to the average) compared to other countries in the same wave. In response to the question 'Here is a list of qualities that children can be encouraged to learn at home. Which, if any, do you consider to be especially important?', on average participants 'did not mention' children's religious faith as especially important. According to the WVS, Japan was found to have neither an above nor a below average Survival vs Self-expression Values score compared to other countries in the same wave. According to the WVS, Japan was found to be above averagely neutral compared to other countries in the same wave. In response to the question 'Are you a member of a consumer organization?', on average participants indicated that they 'are an inactive member' . According to the WVS, Japan was found to have an above average value of fairness compared to other countries in the same wave. In response to the question 'Please tell me for each of the following actions whether you think it can always be justified, never be justified, or something in between: Stealing property', on average participants indicated that it is 'almost never justifiable' . According to the WVS, Japan was found to be neither above nor below averagely skeptical compared to other countries in the same wave. According to the WVS, Japan was found to be neither above nor below averagely tranquil compared to other countries in the same wave.</t>
-  </si>
-  <si>
     <t>According to the World Value Survey, Brazil does not stand out strongly in any value dimension. Brazilians show no strong leanings toward either tradition or secularism, or toward survival or self-expression priorities.  The country’s value system mirrors international norms, with neutrality and outlook aligned with the global middle ground. Although individual Brazilian citizens might have a wide range of views, on the average they do not diverge significantly from worldwide patterns.</t>
-  </si>
-  <si>
-    <t>According to the World Value Survey, Japan stands out as a secular nation, with little emphasis placed on religious faith when raising children or shaping social priorities. Japan also stands out for its emphasis on fairness, as most citizens view actions such as stealing as almost never justifiable. In other areas such as survival versus self-expression, skepticism, and tranquility, the country remains close to the global average, though it leans slightly more toward neutrality with many citizens being inactive members of consumer organizations. Overall, Japanese society appears strongly secular, fairness-oriented, and steady across most other value dimensions.</t>
   </si>
   <si>
     <t>Here is a statistical description of Pedro, who played for 1592 minutes as a forward.
@@ -486,10 +462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B2BAE4-91EA-4C9C-84FA-0836237E6794}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,10 +477,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -512,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -521,19 +497,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -541,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="214" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -549,44 +525,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="179" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="214" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
